--- a/docs/StructureDefinition-MedicationRequest.xlsx
+++ b/docs/StructureDefinition-MedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31T21:33:26+08:00</t>
+    <t>2022-08-03T14:01:00+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequest.xlsx
+++ b/docs/StructureDefinition-MedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-07T11:52:30+08:00</t>
+    <t>2022-08-27T12:17:33+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequest.xlsx
+++ b/docs/StructureDefinition-MedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-27T12:17:33+08:00</t>
+    <t>2022-08-27T19:57:01+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequest.xlsx
+++ b/docs/StructureDefinition-MedicationRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6945" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6945" uniqueCount="938">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-27T19:57:01+08:00</t>
+    <t>2022-09-25T15:07:05+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2009,6 +2009,9 @@
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.timing.code.coding.system</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v3-GTSAbbreviation</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.timing.code.coding.version</t>
@@ -15588,7 +15591,7 @@
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="R109" t="s" s="2">
         <v>77</v>
@@ -15662,7 +15665,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15776,7 +15779,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15890,7 +15893,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -16004,7 +16007,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -16120,7 +16123,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16236,7 +16239,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16259,16 +16262,16 @@
         <v>86</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -16297,10 +16300,10 @@
         <v>249</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>77</v>
@@ -16318,7 +16321,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>75</v>
@@ -16339,18 +16342,18 @@
         <v>77</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16376,16 +16379,16 @@
         <v>174</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -16413,10 +16416,10 @@
         <v>249</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>77</v>
@@ -16434,7 +16437,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>75</v>
@@ -16455,18 +16458,18 @@
         <v>77</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16492,14 +16495,14 @@
         <v>174</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16527,10 +16530,10 @@
         <v>249</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>77</v>
@@ -16548,7 +16551,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>75</v>
@@ -16569,18 +16572,18 @@
         <v>77</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16692,7 +16695,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16806,7 +16809,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16922,7 +16925,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -17034,7 +17037,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -17148,7 +17151,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -17190,7 +17193,7 @@
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="R123" t="s" s="2">
         <v>77</v>
@@ -17264,7 +17267,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17378,7 +17381,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17492,7 +17495,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17606,7 +17609,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17722,7 +17725,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17838,7 +17841,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17864,16 +17867,16 @@
         <v>174</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>77</v>
@@ -17901,10 +17904,10 @@
         <v>249</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>77</v>
@@ -17922,7 +17925,7 @@
         <v>77</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>75</v>
@@ -17943,18 +17946,18 @@
         <v>77</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -18066,7 +18069,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -18180,7 +18183,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18296,7 +18299,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18408,7 +18411,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18522,7 +18525,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18564,7 +18567,7 @@
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="R135" t="s" s="2">
         <v>77</v>
@@ -18638,7 +18641,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18752,7 +18755,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18866,7 +18869,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18980,7 +18983,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -19096,7 +19099,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -19212,7 +19215,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19238,10 +19241,10 @@
         <v>538</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -19292,7 +19295,7 @@
         <v>77</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>75</v>
@@ -19319,12 +19322,12 @@
         <v>77</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19436,7 +19439,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19550,7 +19553,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19576,14 +19579,14 @@
         <v>174</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>77</v>
@@ -19611,10 +19614,10 @@
         <v>249</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>77</v>
@@ -19632,7 +19635,7 @@
         <v>77</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>75</v>
@@ -19659,12 +19662,12 @@
         <v>77</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19687,19 +19690,19 @@
         <v>86</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>77</v>
@@ -19748,7 +19751,7 @@
         <v>77</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>75</v>
@@ -19769,18 +19772,18 @@
         <v>77</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19803,19 +19806,19 @@
         <v>86</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>77</v>
@@ -19864,7 +19867,7 @@
         <v>77</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>75</v>
@@ -19885,18 +19888,18 @@
         <v>77</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19919,19 +19922,19 @@
         <v>86</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>77</v>
@@ -19980,7 +19983,7 @@
         <v>77</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>75</v>
@@ -20001,18 +20004,18 @@
         <v>77</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -20035,19 +20038,19 @@
         <v>86</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>77</v>
@@ -20096,7 +20099,7 @@
         <v>77</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>75</v>
@@ -20117,7 +20120,7 @@
         <v>77</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>77</v>
@@ -20128,7 +20131,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -20151,17 +20154,17 @@
         <v>86</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>77</v>
@@ -20210,7 +20213,7 @@
         <v>77</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>75</v>
@@ -20231,7 +20234,7 @@
         <v>77</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>77</v>
@@ -20242,7 +20245,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20265,13 +20268,13 @@
         <v>77</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -20322,7 +20325,7 @@
         <v>77</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>75</v>
@@ -20340,10 +20343,10 @@
         <v>77</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>77</v>
@@ -20354,7 +20357,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20466,7 +20469,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20580,7 +20583,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20696,7 +20699,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20719,16 +20722,16 @@
         <v>77</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -20778,7 +20781,7 @@
         <v>77</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>75</v>
@@ -20799,7 +20802,7 @@
         <v>77</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>77</v>
@@ -20810,7 +20813,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20922,7 +20925,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -21036,7 +21039,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21152,7 +21155,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -21175,13 +21178,13 @@
         <v>77</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -21232,7 +21235,7 @@
         <v>77</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>75</v>
@@ -21253,7 +21256,7 @@
         <v>77</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>77</v>
@@ -21264,7 +21267,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21287,13 +21290,13 @@
         <v>77</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -21344,7 +21347,7 @@
         <v>77</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>75</v>
@@ -21365,7 +21368,7 @@
         <v>77</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>77</v>
@@ -21376,7 +21379,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21399,13 +21402,13 @@
         <v>77</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -21456,7 +21459,7 @@
         <v>77</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>75</v>
@@ -21477,7 +21480,7 @@
         <v>77</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>77</v>
@@ -21488,7 +21491,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21514,16 +21517,16 @@
         <v>221</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>77</v>
@@ -21572,7 +21575,7 @@
         <v>77</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>75</v>
@@ -21590,10 +21593,10 @@
         <v>77</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>77</v>
@@ -21604,7 +21607,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21716,7 +21719,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21830,7 +21833,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21856,13 +21859,13 @@
         <v>385</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
@@ -21912,7 +21915,7 @@
         <v>77</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>75</v>
@@ -21921,7 +21924,7 @@
         <v>85</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AI164" t="s" s="2">
         <v>97</v>
@@ -21933,18 +21936,18 @@
         <v>77</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21970,20 +21973,20 @@
         <v>385</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P165" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="Q165" t="s" s="2">
         <v>77</v>
@@ -22028,7 +22031,7 @@
         <v>77</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>75</v>
@@ -22037,7 +22040,7 @@
         <v>85</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>97</v>
@@ -22049,18 +22052,18 @@
         <v>77</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -22086,13 +22089,13 @@
         <v>625</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
@@ -22142,7 +22145,7 @@
         <v>77</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>75</v>
@@ -22160,21 +22163,21 @@
         <v>77</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22197,13 +22200,13 @@
         <v>77</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -22254,7 +22257,7 @@
         <v>77</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>75</v>
@@ -22272,21 +22275,21 @@
         <v>77</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22398,7 +22401,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22512,7 +22515,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22538,16 +22541,16 @@
         <v>566</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>77</v>
@@ -22596,7 +22599,7 @@
         <v>77</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>75</v>
@@ -22617,18 +22620,18 @@
         <v>77</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22654,20 +22657,20 @@
         <v>105</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P171" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="Q171" t="s" s="2">
         <v>77</v>
@@ -22691,10 +22694,10 @@
         <v>168</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>77</v>
@@ -22712,7 +22715,7 @@
         <v>77</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>75</v>
@@ -22733,18 +22736,18 @@
         <v>77</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22770,14 +22773,14 @@
         <v>87</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>77</v>
@@ -22826,7 +22829,7 @@
         <v>77</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>75</v>
@@ -22847,18 +22850,18 @@
         <v>77</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22884,21 +22887,21 @@
         <v>99</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P173" s="2"/>
       <c r="Q173" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="R173" t="s" s="2">
         <v>77</v>
@@ -22940,7 +22943,7 @@
         <v>77</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>75</v>
@@ -22949,7 +22952,7 @@
         <v>85</v>
       </c>
       <c r="AH173" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AI173" t="s" s="2">
         <v>97</v>
@@ -22961,18 +22964,18 @@
         <v>77</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22998,16 +23001,16 @@
         <v>105</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>77</v>
@@ -23056,7 +23059,7 @@
         <v>77</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>75</v>
@@ -23077,18 +23080,18 @@
         <v>77</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN174" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23111,16 +23114,16 @@
         <v>77</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
@@ -23170,7 +23173,7 @@
         <v>77</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>75</v>
@@ -23188,10 +23191,10 @@
         <v>77</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>77</v>
@@ -23202,7 +23205,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23314,7 +23317,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23428,7 +23431,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23454,16 +23457,16 @@
         <v>566</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>77</v>
@@ -23512,7 +23515,7 @@
         <v>77</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>75</v>
@@ -23533,18 +23536,18 @@
         <v>77</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23570,20 +23573,20 @@
         <v>105</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P179" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="Q179" t="s" s="2">
         <v>77</v>
@@ -23607,10 +23610,10 @@
         <v>168</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>77</v>
@@ -23628,7 +23631,7 @@
         <v>77</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>75</v>
@@ -23649,18 +23652,18 @@
         <v>77</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23686,14 +23689,14 @@
         <v>87</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>77</v>
@@ -23742,7 +23745,7 @@
         <v>77</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>75</v>
@@ -23763,18 +23766,18 @@
         <v>77</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23800,21 +23803,21 @@
         <v>99</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P181" s="2"/>
       <c r="Q181" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="R181" t="s" s="2">
         <v>77</v>
@@ -23856,7 +23859,7 @@
         <v>77</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>75</v>
@@ -23865,7 +23868,7 @@
         <v>85</v>
       </c>
       <c r="AH181" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AI181" t="s" s="2">
         <v>97</v>
@@ -23877,18 +23880,18 @@
         <v>77</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23914,16 +23917,16 @@
         <v>105</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>77</v>
@@ -23972,7 +23975,7 @@
         <v>77</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>75</v>
@@ -23993,18 +23996,18 @@
         <v>77</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN182" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -24030,10 +24033,10 @@
         <v>228</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
@@ -24084,7 +24087,7 @@
         <v>77</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>75</v>
@@ -24105,7 +24108,7 @@
         <v>77</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>419</v>
@@ -24116,7 +24119,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24139,13 +24142,13 @@
         <v>77</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
@@ -24196,7 +24199,7 @@
         <v>77</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>75</v>
@@ -24214,10 +24217,10 @@
         <v>77</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>77</v>
@@ -24228,7 +24231,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24340,7 +24343,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24454,7 +24457,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24570,7 +24573,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24593,16 +24596,16 @@
         <v>77</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
@@ -24631,10 +24634,10 @@
         <v>249</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>77</v>
@@ -24652,7 +24655,7 @@
         <v>77</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>85</v>
@@ -24670,21 +24673,21 @@
         <v>77</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24710,10 +24713,10 @@
         <v>174</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -24743,10 +24746,10 @@
         <v>249</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="Z189" t="s" s="2">
         <v>77</v>
@@ -24764,7 +24767,7 @@
         <v>77</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>75</v>
@@ -24782,21 +24785,21 @@
         <v>77</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="AM189" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN189" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24819,13 +24822,13 @@
         <v>77</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
@@ -24876,7 +24879,7 @@
         <v>77</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>75</v>
@@ -24891,13 +24894,13 @@
         <v>97</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AM190" t="s" s="2">
         <v>77</v>
@@ -24908,11 +24911,11 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -24931,16 +24934,16 @@
         <v>77</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" t="s" s="2">
@@ -24990,7 +24993,7 @@
         <v>77</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>75</v>
@@ -25011,7 +25014,7 @@
         <v>77</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>77</v>
@@ -25022,7 +25025,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -25045,16 +25048,16 @@
         <v>77</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -25104,7 +25107,7 @@
         <v>77</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>75</v>
@@ -25119,13 +25122,13 @@
         <v>97</v>
       </c>
       <c r="AJ192" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="AK192" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>77</v>

--- a/docs/StructureDefinition-MedicationRequest.xlsx
+++ b/docs/StructureDefinition-MedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-25T15:07:05+08:00</t>
+    <t>2022-10-08T22:29:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2011,7 +2011,7 @@
     <t>MedicationRequest.dosageInstruction.timing.code.coding.system</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/v3-GTSAbbreviation</t>
+    <t>http://hitstdio.ntunhs.edu.tw/ig/twcore/ValueSet-medication-frequency-tw.html</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.timing.code.coding.version</t>
@@ -2135,7 +2135,7 @@
     <t>MedicationRequest.dosageInstruction.route.coding.system</t>
   </si>
   <si>
-    <t>http://mtrsoftware.com.tw/Page_L/用法表.htm</t>
+    <t>http://hitstdio.ntunhs.edu.tw/ig/twcore/ValueSet-medication-path-tw.html</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.route.coding.version</t>
@@ -16477,7 +16477,7 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>85</v>
@@ -17849,7 +17849,7 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F129" t="s" s="2">
         <v>85</v>
